--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289324.9766344806</v>
+        <v>-291212.5581508828</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>297.4496696910173</v>
+        <v>142.2289134595095</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.98137063113154</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>20.31656064018903</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.1891562384674</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>90.28686697813563</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>275.0992346450739</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.4837616268615</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.3701549070216</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>255.7392110914377</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,25 +1181,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.82466560786662</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>1.113264753005112</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>63.57056562635498</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>134.9975904457708</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136123</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>21.96549637701692</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>78.59792493102957</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>256.9535582402055</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1291651532063</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>3.633341602776704</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750031</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002169</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>24.01153903325422</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965543</v>
+        <v>93.41221638965547</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801224</v>
+        <v>91.23070601801228</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>55.08921688933295</v>
+        <v>93.71057173897924</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>55.21598883571512</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523592</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952711</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>64.53878905228801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235379</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463242</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463045</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4150,7 +4150,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1680.577747274852</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.615230334441</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D2" t="n">
-        <v>1311.615230334441</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E2" t="n">
-        <v>925.8269777361963</v>
+        <v>769.0383350781076</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2070.717079250664</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1680.577747274852</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,43 +4407,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.45494510253</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>245.45494510253</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>95.33830569019429</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>95.33830569019429</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>95.33830569019429</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>678.1902866356228</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>678.1902866356228</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1332.357248852006</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,46 +4647,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
         <v>222.942782082032</v>
@@ -4762,13 +4762,13 @@
         <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>792.9261132351686</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.25819089779</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.25819089779</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>643.457604804549</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259437</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.6662285267282</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C13" t="n">
-        <v>671.7300455988213</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988213</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164282</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
         <v>208.7516828383384</v>
@@ -5194,7 +5194,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5212,37 +5212,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557905</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557905</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352018</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.231782352018</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>1243.107272500498</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.314693356968</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5261,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1138.769652876933</v>
+        <v>955.1031435655741</v>
       </c>
       <c r="W16" t="n">
-        <v>1138.769652876933</v>
+        <v>665.6859735286135</v>
       </c>
       <c r="X16" t="n">
-        <v>910.7801019789154</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.7801019789154</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>345.5451177528691</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C19" t="n">
-        <v>176.6089348249622</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>176.6089348249622</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>176.6089348249622</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5671,10 +5671,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811262</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>755.1831334811262</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>527.1935825831089</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.1935825831089</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571612</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636255</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526318</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262962</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765198</v>
+        <v>1239.367221830422</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706328</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,43 +6154,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1495.246228534896</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,19 +6388,19 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7342676598892</v>
+        <v>546.5704195584497</v>
       </c>
       <c r="C31" t="n">
-        <v>507.5589500133528</v>
+        <v>546.5704195584497</v>
       </c>
       <c r="D31" t="n">
-        <v>413.2031758823877</v>
+        <v>452.2146454274845</v>
       </c>
       <c r="E31" t="n">
-        <v>321.0509475813652</v>
+        <v>360.062417126462</v>
       </c>
       <c r="F31" t="n">
-        <v>321.0509475813652</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>208.6364911825566</v>
+        <v>247.6479607276539</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962043</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252996</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818801</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894285</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386953</v>
+        <v>902.6804289818903</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220486</v>
+        <v>837.4897329694782</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598892</v>
+        <v>672.4580191073187</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982984</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859416</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982964</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7795,22 +7795,22 @@
         <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208051</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>224.596390636032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>155.0140877257398</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,22 +23704,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.1400528780572</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>145.2813247216109</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>66.82312309190168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>29.28379415837184</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>82.39383318338466</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.2874683808265</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338616</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338638</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>262.2258133653231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437432</v>
+        <v>90.21779139437436</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>38.62135484964624</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523587</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>105.9676097081923</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>8.881784197001252e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26320,31 +26320,31 @@
         <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
+        <v>234617.4358426251</v>
+      </c>
+      <c r="F2" t="n">
+        <v>234617.4358426251</v>
+      </c>
+      <c r="G2" t="n">
+        <v>234617.4358426251</v>
+      </c>
+      <c r="H2" t="n">
         <v>234617.4358426252</v>
       </c>
-      <c r="F2" t="n">
-        <v>234617.4358426252</v>
-      </c>
-      <c r="G2" t="n">
-        <v>234617.4358426252</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>234617.4358426251</v>
       </c>
-      <c r="I2" t="n">
-        <v>234617.4358426252</v>
-      </c>
       <c r="J2" t="n">
-        <v>234617.4358426252</v>
+        <v>234617.4358426251</v>
       </c>
       <c r="K2" t="n">
         <v>244093.2824071619</v>
       </c>
       <c r="L2" t="n">
+        <v>246312.5309592851</v>
+      </c>
+      <c r="M2" t="n">
         <v>246312.5309592852</v>
-      </c>
-      <c r="M2" t="n">
-        <v>246312.5309592851</v>
       </c>
       <c r="N2" t="n">
         <v>246312.5309592852</v>
@@ -26375,25 +26375,25 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.900688974858441e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284551</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086698</v>
+        <v>10342.90680086705</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26421,40 +26421,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007458</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007493</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020397</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732794</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26479,37 +26479,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574431.4750345898</v>
+        <v>-574431.4750345899</v>
       </c>
       <c r="C6" t="n">
         <v>15536.40417995464</v>
       </c>
       <c r="D6" t="n">
-        <v>15536.40417995464</v>
+        <v>15536.40417995458</v>
       </c>
       <c r="E6" t="n">
-        <v>-390446.658238995</v>
+        <v>-390544.1173649673</v>
       </c>
       <c r="F6" t="n">
-        <v>134713.3782379011</v>
+        <v>134615.9191119286</v>
       </c>
       <c r="G6" t="n">
-        <v>134713.3782379011</v>
+        <v>134615.919111929</v>
       </c>
       <c r="H6" t="n">
-        <v>134713.3782379006</v>
+        <v>134615.9191119289</v>
       </c>
       <c r="I6" t="n">
-        <v>134713.3782379015</v>
+        <v>134615.9191119288</v>
       </c>
       <c r="J6" t="n">
-        <v>-41709.84095469187</v>
+        <v>-41807.30008066407</v>
       </c>
       <c r="K6" t="n">
-        <v>77221.11440388957</v>
+        <v>77202.62066595527</v>
       </c>
       <c r="L6" t="n">
-        <v>107918.9994410648</v>
+        <v>107918.9994410646</v>
       </c>
       <c r="M6" t="n">
         <v>-16539.10899190544</v>
@@ -26561,7 +26561,7 @@
         <v>118261.9062419317</v>
       </c>
       <c r="P6" t="n">
-        <v>74099.30093908623</v>
+        <v>74099.30093908621</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.292814075014823e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26747,16 +26747,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.292814075014823e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108372</v>
+        <v>12.92863350108382</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -26969,13 +26969,13 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.292814075014823e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>109.4263760506941</v>
+        <v>264.6471322822019</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>126.3284316279194</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>191.8289783098299</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.5446854250132</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>274.9860247928719</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>11.42376369151714</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.10089172523328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.36368675645895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>158.0449589293573</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.49548950841384</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>141.2104398502177</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.984279490192421e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855688</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206059</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118008</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.76521155233</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36683,19 +36683,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412245</v>
+        <v>67.7110267941224</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043168</v>
+        <v>94.42895660043163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
